--- a/BluetoothGeoClustering_python/part2/experiment_documentation_almog.xlsx
+++ b/BluetoothGeoClustering_python/part2/experiment_documentation_almog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Projects\Bluetooth\BluetoothGeoClustering\BluetoothGeoClustering_python\part2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E76194-03CC-493C-87F3-F8717B43C749}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6796476C-D8FD-45A0-B6B9-BC017DD85243}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2016" yWindow="2280" windowWidth="17280" windowHeight="8616" xr2:uid="{5C5E9999-DDE8-4725-8FE5-92CF95EA703B}"/>
+    <workbookView xWindow="1668" yWindow="1932" windowWidth="17280" windowHeight="8616" xr2:uid="{5C5E9999-DDE8-4725-8FE5-92CF95EA703B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="13">
   <si>
     <t>end_time</t>
   </si>
@@ -424,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57803EA6-0402-48EB-AFAC-3B72594411C6}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -669,6 +669,190 @@
         <v>43918</v>
       </c>
     </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="G11" s="2">
+        <v>43919</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="G12" s="2">
+        <v>43919</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.49027777777777781</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.49513888888888885</v>
+      </c>
+      <c r="G13" s="2">
+        <v>43919</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.49583333333333335</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="G14" s="2">
+        <v>43919</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.5180555555555556</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.53055555555555556</v>
+      </c>
+      <c r="G15" s="2">
+        <v>43919</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="G16" s="2">
+        <v>43919</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>1.5</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.55972222222222223</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.56458333333333333</v>
+      </c>
+      <c r="G17" s="2">
+        <v>43919</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.56527777777777777</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G18" s="2">
+        <v>43919</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
